--- a/Perfume Descriptions.xlsx
+++ b/Perfume Descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rijulmehta/OurSecret_Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{218C79A4-35A7-0844-9510-2B3389520B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2146BC85-477B-BC42-B3C7-EEE56B0D21B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="500" windowWidth="14700" windowHeight="16080" xr2:uid="{52BC867E-FF50-2245-8EED-CE0526A5FD08}"/>
+    <workbookView xWindow="8440" yWindow="500" windowWidth="14700" windowHeight="16020" xr2:uid="{52BC867E-FF50-2245-8EED-CE0526A5FD08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
